--- a/Entity Linking/Mapping/mapping_master.xlsx
+++ b/Entity Linking/Mapping/mapping_master.xlsx
@@ -8,22 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/ondanatv_usc_edu/Documents/USC Classes/558/Project/Work/fitness_kg/Entity Linking/Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="8_{CF6010DA-69F2-414B-A618-C704A3AA72E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50BA9CFC-1E74-4062-876D-6433B6F35DC4}"/>
+  <xr:revisionPtr revIDLastSave="404" documentId="8_{CF6010DA-69F2-414B-A618-C704A3AA72E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4EBA349-DA90-455F-87A9-1574A02ECCEF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{33B96BD0-17D4-4267-9B81-9A3EB568A24E}"/>
   </bookViews>
   <sheets>
     <sheet name="Muscle&amp;Anatomy" sheetId="4" r:id="rId1"/>
-    <sheet name="SAME_AS" sheetId="8" r:id="rId2"/>
-    <sheet name="Muscle" sheetId="5" r:id="rId3"/>
-    <sheet name="Anatomy" sheetId="6" r:id="rId4"/>
-    <sheet name="PART_OF_REL" sheetId="7" r:id="rId5"/>
-    <sheet name="Yoga Mapping" sheetId="3" r:id="rId6"/>
-    <sheet name="Gym to ExRx" sheetId="1" r:id="rId7"/>
+    <sheet name="SAME_AS (2)" sheetId="10" state="hidden" r:id="rId2"/>
+    <sheet name="SAME_AS" sheetId="8" state="hidden" r:id="rId3"/>
+    <sheet name="Muscle" sheetId="5" r:id="rId4"/>
+    <sheet name="Anatomy" sheetId="6" r:id="rId5"/>
+    <sheet name="PART_OF_REL" sheetId="7" r:id="rId6"/>
+    <sheet name="Yoga Mapping" sheetId="3" r:id="rId7"/>
+    <sheet name="Yoga Name Mapping" sheetId="9" state="hidden" r:id="rId8"/>
+    <sheet name="Gym to ExRx" sheetId="1" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Gym to ExRx'!$I$1:$K$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Yoga Mapping'!$A$1:$B$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Gym to ExRx'!$I$1:$K$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SAME_AS!$A$1:$B$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Yoga Mapping'!$A$1:$B$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Yoga Name Mapping'!$A$1:$A$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,43 +49,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Shyam Krishnan O V</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5094ACFA-153D-437A-9BEB-568E65355C78}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Shyam Krishnan O V:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-If the name in exrx get that url
-else get the url in muscle and stength</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="317">
   <si>
     <t>Abductors</t>
   </si>
@@ -385,12 +354,6 @@
     <t>Anatomy</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Additional Url</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -407,13 +370,646 @@
   </si>
   <si>
     <t>Spine</t>
+  </si>
+  <si>
+    <t>crow pose</t>
+  </si>
+  <si>
+    <t>dancer pose</t>
+  </si>
+  <si>
+    <t>feathered peacock pose</t>
+  </si>
+  <si>
+    <t>forearm plank</t>
+  </si>
+  <si>
+    <t>four-limbed staff pose</t>
+  </si>
+  <si>
+    <t>pyramid pose</t>
+  </si>
+  <si>
+    <t>reverse plank</t>
+  </si>
+  <si>
+    <t>side crow pose</t>
+  </si>
+  <si>
+    <t>wheel pose</t>
+  </si>
+  <si>
+    <t>dolphin plank pose</t>
+  </si>
+  <si>
+    <t>intense side stretch pose</t>
+  </si>
+  <si>
+    <t>upward plank pose</t>
+  </si>
+  <si>
+    <t>crane pose</t>
+  </si>
+  <si>
+    <t>lord of the dance pose</t>
+  </si>
+  <si>
+    <t>forearm balance</t>
+  </si>
+  <si>
+    <t>chaturanga dandasana</t>
+  </si>
+  <si>
+    <t>side crane pose</t>
+  </si>
+  <si>
+    <t>upward-facing bow pose</t>
+  </si>
+  <si>
+    <t>crane (crow) pose</t>
+  </si>
+  <si>
+    <t>downward-facing dog</t>
+  </si>
+  <si>
+    <t>downward-facing dog pose</t>
+  </si>
+  <si>
+    <t>legs up the wall pose</t>
+  </si>
+  <si>
+    <t>legs-up-the-wall pose</t>
+  </si>
+  <si>
+    <t>side crane (crow) pose</t>
+  </si>
+  <si>
+    <t>side-reclining leg lift (anantasana)</t>
+  </si>
+  <si>
+    <t>side-reclining leg lift</t>
+  </si>
+  <si>
+    <t>upward bow (wheel) pose</t>
+  </si>
+  <si>
+    <t>warrior 1 pose</t>
+  </si>
+  <si>
+    <t>warrior 2 pose</t>
+  </si>
+  <si>
+    <t>warrior 3 pose</t>
+  </si>
+  <si>
+    <t>upward bow pose</t>
+  </si>
+  <si>
+    <t>wide-angled seated forward bend</t>
+  </si>
+  <si>
+    <t>warrior i pose</t>
+  </si>
+  <si>
+    <t>warrior ii pose</t>
+  </si>
+  <si>
+    <t>warrior iii pose</t>
+  </si>
+  <si>
+    <t>wide-legged forward bend</t>
+  </si>
+  <si>
+    <t>bharadvaja's twist</t>
+  </si>
+  <si>
+    <t>bharadvajasana i</t>
+  </si>
+  <si>
+    <t>big toe pose</t>
+  </si>
+  <si>
+    <t>padangusthasana</t>
+  </si>
+  <si>
+    <t>boat pose</t>
+  </si>
+  <si>
+    <t>paripurna navasana</t>
+  </si>
+  <si>
+    <t>bound angle pose</t>
+  </si>
+  <si>
+    <t>baddha konasana</t>
+  </si>
+  <si>
+    <t>bow pose</t>
+  </si>
+  <si>
+    <t>dhanurasana</t>
+  </si>
+  <si>
+    <t>bridge pose</t>
+  </si>
+  <si>
+    <t>setu bandha sarvangasana</t>
+  </si>
+  <si>
+    <t>camel pose</t>
+  </si>
+  <si>
+    <t>ustrasana</t>
+  </si>
+  <si>
+    <t>cat pose</t>
+  </si>
+  <si>
+    <t>marjaryasana</t>
+  </si>
+  <si>
+    <t>chair pose</t>
+  </si>
+  <si>
+    <t>utkatasana</t>
+  </si>
+  <si>
+    <t>child's pose</t>
+  </si>
+  <si>
+    <t>balasana</t>
+  </si>
+  <si>
+    <t>cobra pose</t>
+  </si>
+  <si>
+    <t>bhujangasana</t>
+  </si>
+  <si>
+    <t>corpse pose</t>
+  </si>
+  <si>
+    <t>savasana</t>
+  </si>
+  <si>
+    <t>cow face pose</t>
+  </si>
+  <si>
+    <t>gomukhasana</t>
+  </si>
+  <si>
+    <t>cow pose</t>
+  </si>
+  <si>
+    <t>bitilasana</t>
+  </si>
+  <si>
+    <t>natarajasana</t>
+  </si>
+  <si>
+    <t>adho mukha svanasana</t>
+  </si>
+  <si>
+    <t>eagle pose</t>
+  </si>
+  <si>
+    <t>garudasana</t>
+  </si>
+  <si>
+    <t>easy pose</t>
+  </si>
+  <si>
+    <t>sukhasana</t>
+  </si>
+  <si>
+    <t>eight-angle pose</t>
+  </si>
+  <si>
+    <t>astavakrasana</t>
+  </si>
+  <si>
+    <t>extended hand-to-big-toe pose</t>
+  </si>
+  <si>
+    <t>utthita hasta padangustasana</t>
+  </si>
+  <si>
+    <t>extended puppy pose</t>
+  </si>
+  <si>
+    <t>uttana shishosana</t>
+  </si>
+  <si>
+    <t>extended side angle pose</t>
+  </si>
+  <si>
+    <t>utthita parsvakonasana</t>
+  </si>
+  <si>
+    <t>extended triangle pose</t>
+  </si>
+  <si>
+    <t>utthita trikonasana</t>
+  </si>
+  <si>
+    <t>pincha mayurasana</t>
+  </si>
+  <si>
+    <t>fire log pose</t>
+  </si>
+  <si>
+    <t>agnistambhasana</t>
+  </si>
+  <si>
+    <t>firefly pose</t>
+  </si>
+  <si>
+    <t>tittibhasana</t>
+  </si>
+  <si>
+    <t>fish pose</t>
+  </si>
+  <si>
+    <t>matsyasana</t>
+  </si>
+  <si>
+    <t>garland pose</t>
+  </si>
+  <si>
+    <t>malasana</t>
+  </si>
+  <si>
+    <t>gate pose</t>
+  </si>
+  <si>
+    <t>parighasana</t>
+  </si>
+  <si>
+    <t>half frog pose</t>
+  </si>
+  <si>
+    <t>ardha bhekasana</t>
+  </si>
+  <si>
+    <t>half lord of the fishes pose</t>
+  </si>
+  <si>
+    <t>ardha matsyendrasana</t>
+  </si>
+  <si>
+    <t>half moon pose</t>
+  </si>
+  <si>
+    <t>ardha chandrasana</t>
+  </si>
+  <si>
+    <t>handstand</t>
+  </si>
+  <si>
+    <t>adho mukha vrksasana</t>
+  </si>
+  <si>
+    <t>happy baby pose</t>
+  </si>
+  <si>
+    <t>ananda balasana</t>
+  </si>
+  <si>
+    <t>head-to-knee pose</t>
+  </si>
+  <si>
+    <t>janu sirsasana</t>
+  </si>
+  <si>
+    <t>hero pose</t>
+  </si>
+  <si>
+    <t>virasana</t>
+  </si>
+  <si>
+    <t>heron pose</t>
+  </si>
+  <si>
+    <t>krounchasana</t>
+  </si>
+  <si>
+    <t>viparita karani</t>
+  </si>
+  <si>
+    <t>locust pose</t>
+  </si>
+  <si>
+    <t>salabhasana</t>
+  </si>
+  <si>
+    <t>lotus pose</t>
+  </si>
+  <si>
+    <t>padmasana</t>
+  </si>
+  <si>
+    <t>low lunge</t>
+  </si>
+  <si>
+    <t>anjaneyasana</t>
+  </si>
+  <si>
+    <t>marichi's pose</t>
+  </si>
+  <si>
+    <t>marichyasana iii</t>
+  </si>
+  <si>
+    <t>monkey pose</t>
+  </si>
+  <si>
+    <t>hanumanasana</t>
+  </si>
+  <si>
+    <t>mountain pose</t>
+  </si>
+  <si>
+    <t>tadasana</t>
+  </si>
+  <si>
+    <t>one-legged king pigeon pose</t>
+  </si>
+  <si>
+    <t>eka pada rajakapotasana</t>
+  </si>
+  <si>
+    <t>one-legged king pigeon pose ii</t>
+  </si>
+  <si>
+    <t>eka pada rajakapotasana ii</t>
+  </si>
+  <si>
+    <t>peacock pose</t>
+  </si>
+  <si>
+    <t>mayurasana</t>
+  </si>
+  <si>
+    <t>pigeon pose</t>
+  </si>
+  <si>
+    <t>kapotasana</t>
+  </si>
+  <si>
+    <t>plow pose</t>
+  </si>
+  <si>
+    <t>halasana</t>
+  </si>
+  <si>
+    <t>pose dedicated to the sage koundinya i</t>
+  </si>
+  <si>
+    <t>eka pada koundinyanasana i</t>
+  </si>
+  <si>
+    <t>pose dedicated to the sage koundinya ii</t>
+  </si>
+  <si>
+    <t>eka pada koundinyanasana ii</t>
+  </si>
+  <si>
+    <t>pose dedicated to the sage marichi i</t>
+  </si>
+  <si>
+    <t>marichyasana i</t>
+  </si>
+  <si>
+    <t>parsvottanasana</t>
+  </si>
+  <si>
+    <t>reclining bound angle pose</t>
+  </si>
+  <si>
+    <t>supta baddha konasana</t>
+  </si>
+  <si>
+    <t>reclining hand-to-big-toe pose</t>
+  </si>
+  <si>
+    <t>supta padangusthasana</t>
+  </si>
+  <si>
+    <t>reclining hero pose</t>
+  </si>
+  <si>
+    <t>supta virasana</t>
+  </si>
+  <si>
+    <t>purvottanasana</t>
+  </si>
+  <si>
+    <t>revolved head-to-knee pose</t>
+  </si>
+  <si>
+    <t>parivrtta janu sirsasana</t>
+  </si>
+  <si>
+    <t>revolved side angle pose</t>
+  </si>
+  <si>
+    <t>parivrtta parsvakonasana</t>
+  </si>
+  <si>
+    <t>revolved triangle pose</t>
+  </si>
+  <si>
+    <t>parivrtta trikonasana</t>
+  </si>
+  <si>
+    <t>rope pose</t>
+  </si>
+  <si>
+    <t>pasasana</t>
+  </si>
+  <si>
+    <t>scale pose</t>
+  </si>
+  <si>
+    <t>tolasana</t>
+  </si>
+  <si>
+    <t>seated forward bend</t>
+  </si>
+  <si>
+    <t>paschimottanasana</t>
+  </si>
+  <si>
+    <t>shoulder-pressing pose</t>
+  </si>
+  <si>
+    <t>bhujapidasana</t>
+  </si>
+  <si>
+    <t>parsva bakasana</t>
+  </si>
+  <si>
+    <t>side plank pose</t>
+  </si>
+  <si>
+    <t>vasisthasana</t>
+  </si>
+  <si>
+    <t>anantasana</t>
+  </si>
+  <si>
+    <t>staff pose</t>
+  </si>
+  <si>
+    <t>dandasana</t>
+  </si>
+  <si>
+    <t>standing forward bend</t>
+  </si>
+  <si>
+    <t>uttanasana</t>
+  </si>
+  <si>
+    <t>standing half forward bend</t>
+  </si>
+  <si>
+    <t>ardha uttanasana</t>
+  </si>
+  <si>
+    <t>standing split</t>
+  </si>
+  <si>
+    <t>urdhva prasarita eka padasana</t>
+  </si>
+  <si>
+    <t>supported headstand</t>
+  </si>
+  <si>
+    <t>salamba sirsasana</t>
+  </si>
+  <si>
+    <t>supported shoulderstand</t>
+  </si>
+  <si>
+    <t>salamba sarvangasana</t>
+  </si>
+  <si>
+    <t>tree pose</t>
+  </si>
+  <si>
+    <t>vrksasana</t>
+  </si>
+  <si>
+    <t>upward facing two-foot staff pose</t>
+  </si>
+  <si>
+    <t>dwi pada viparita dandasana</t>
+  </si>
+  <si>
+    <t>upward salute</t>
+  </si>
+  <si>
+    <t>urdhva hastasana</t>
+  </si>
+  <si>
+    <t>upward-facing dog pose</t>
+  </si>
+  <si>
+    <t>urdhva mukha svanasana</t>
+  </si>
+  <si>
+    <t>virabhadrasana i</t>
+  </si>
+  <si>
+    <t>virabhadrasana ii</t>
+  </si>
+  <si>
+    <t>virabhadrasana iii</t>
+  </si>
+  <si>
+    <t>urdhva dhanurasana</t>
+  </si>
+  <si>
+    <t>upavistha konasana</t>
+  </si>
+  <si>
+    <t>prasarita padottanasana</t>
+  </si>
+  <si>
+    <t>wild thing</t>
+  </si>
+  <si>
+    <t>camatkarasana</t>
+  </si>
+  <si>
+    <t>kakasana</t>
+  </si>
+  <si>
+    <t>bakasana</t>
+  </si>
+  <si>
+    <t>AlternateName</t>
+  </si>
+  <si>
+    <t>OriginalName</t>
+  </si>
+  <si>
+    <t>kumbhaka pranayama</t>
+  </si>
+  <si>
+    <t>breath retention</t>
+  </si>
+  <si>
+    <t>nadi shodhana pranayama</t>
+  </si>
+  <si>
+    <t>channel-cleaning breath</t>
+  </si>
+  <si>
+    <t>channel cleaning breath</t>
+  </si>
+  <si>
+    <t>for world meditation day, try this intuition practice</t>
+  </si>
+  <si>
+    <t>intuition meditation</t>
+  </si>
+  <si>
+    <t>discover your true nature</t>
+  </si>
+  <si>
+    <t>self-inquiry meditation</t>
+  </si>
+  <si>
+    <t>a step-by-step guide to practicing mantra meditation</t>
+  </si>
+  <si>
+    <t>mantra meditation</t>
+  </si>
+  <si>
+    <t>reclining hand-to-big-toe pose i</t>
+  </si>
+  <si>
+    <t>garland or squat pose</t>
+  </si>
+  <si>
+    <t>pose dedicated to the sage marichi iii</t>
+  </si>
+  <si>
+    <t>king pigeon pose</t>
+  </si>
+  <si>
+    <t>wide-angle seated forward bend</t>
+  </si>
+  <si>
+    <t>wide-legged standing forward bend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,19 +1031,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -512,7 +1095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -531,11 +1114,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -845,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A03AAB-15B7-4098-8317-5554890CA0DB}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,12 +1491,10 @@
     <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>97</v>
       </c>
@@ -872,327 +1505,321 @@
         <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="F14" t="s">
+      <c r="D14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s">
+      <c r="D15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="F16" t="s">
+      <c r="D16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F18" t="s">
+      <c r="D18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="F19" t="s">
+      <c r="D19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F20" t="s">
+      <c r="D20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="F21" t="s">
+      <c r="D21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="F22" t="s">
+      <c r="D22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="F23" t="s">
+      <c r="D23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="F24" t="s">
+      <c r="D24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="F25" t="s">
+      <c r="D25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
       </c>
-      <c r="F26" t="s">
+      <c r="D26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="F27" t="s">
+      <c r="D27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
       </c>
-      <c r="F28" t="s">
+      <c r="D28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="F29" t="s">
+      <c r="D29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
       </c>
-      <c r="F30" t="s">
+      <c r="D30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C31" t="s">
         <v>62</v>
       </c>
-      <c r="F31" t="s">
+      <c r="D31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="F32" t="s">
+      <c r="D32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -1202,335 +1829,335 @@
       <c r="C33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F33" t="s">
+      <c r="D33" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F34" t="s">
+      <c r="D34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F35" t="s">
+      <c r="D35" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C36" t="s">
         <v>62</v>
       </c>
-      <c r="F36" t="s">
+      <c r="D36" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>45</v>
       </c>
-      <c r="F37" t="s">
+      <c r="D37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C38" t="s">
         <v>62</v>
       </c>
-      <c r="F38" t="s">
+      <c r="D38" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C39" t="s">
         <v>64</v>
       </c>
-      <c r="F39" t="s">
+      <c r="D39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
-      <c r="F40" t="s">
+      <c r="D40" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C41" t="s">
         <v>64</v>
       </c>
-      <c r="F41" t="s">
+      <c r="D41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F42" t="s">
+      <c r="D42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C43" t="s">
         <v>64</v>
       </c>
-      <c r="F43" t="s">
+      <c r="D43" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
       </c>
-      <c r="F44" t="s">
+      <c r="D44" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
       </c>
-      <c r="F45" t="s">
+      <c r="D45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C46" t="s">
         <v>64</v>
       </c>
-      <c r="F46" t="s">
+      <c r="D46" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C47" t="s">
         <v>64</v>
       </c>
-      <c r="F47" t="s">
+      <c r="D47" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C48" t="s">
         <v>64</v>
       </c>
-      <c r="F48" t="s">
+      <c r="D48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F49" t="s">
+      <c r="D49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C50" t="s">
         <v>35</v>
       </c>
-      <c r="F50" t="s">
+      <c r="D50" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C51" t="s">
         <v>46</v>
       </c>
-      <c r="F51" t="s">
+      <c r="D51" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
-      <c r="F52" t="s">
+      <c r="D52" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F53" t="s">
+      <c r="D53" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C54" t="s">
         <v>64</v>
       </c>
-      <c r="F54" t="s">
+      <c r="D54" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F55" t="s">
+      <c r="D55" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C56" t="s">
         <v>46</v>
       </c>
-      <c r="F56" t="s">
+      <c r="D56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C57" t="s">
         <v>35</v>
       </c>
-      <c r="F57" t="s">
+      <c r="D57" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C58" t="s">
         <v>46</v>
       </c>
-      <c r="F58" t="s">
+      <c r="D58" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F59" t="s">
+      <c r="D59" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F60" t="s">
+      <c r="D60" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F61" t="s">
+      <c r="D61" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F62" t="s">
+      <c r="D62" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F63" t="s">
+      <c r="D63" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F64" t="s">
+      <c r="D64" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F65" t="s">
+      <c r="D65" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1541,11 +2168,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB4851B-1F59-4E4A-9ADB-966C6CB72E6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2C044B-0727-4C1D-A10A-63598457CB3C}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1877,11 +2504,776 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756EE9F2-DA3B-474D-8661-68CC705C8DCB}">
-  <dimension ref="A1:B50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB4851B-1F59-4E4A-9ADB-966C6CB72E6D}">
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B60" xr:uid="{7DB4851B-1F59-4E4A-9ADB-966C6CB72E6D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B60">
+      <sortCondition ref="B1:B60"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756EE9F2-DA3B-474D-8661-68CC705C8DCB}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5015938B-F870-4ED5-BDA2-13A736563F46}">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8D68BB-3538-449A-9143-7673612C007E}">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1891,407 +3283,458 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>66</v>
       </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5015938B-F870-4ED5-BDA2-13A736563F46}">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>72</v>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2299,473 +3742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8D68BB-3538-449A-9143-7673612C007E}">
-  <dimension ref="A1:B56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DC8F0-5B18-4C2E-877B-A45ED2FEDDE9}">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -2971,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2979,7 +3956,990 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA35840D-AFBC-4E73-AC26-0EA19AEFE584}">
+  <dimension ref="A1:B119"/>
+  <sheetViews>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection sqref="A1:B119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>237</v>
+      </c>
+      <c r="B60" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>239</v>
+      </c>
+      <c r="B61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>242</v>
+      </c>
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>244</v>
+      </c>
+      <c r="B65" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>248</v>
+      </c>
+      <c r="B67" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>251</v>
+      </c>
+      <c r="B70" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>255</v>
+      </c>
+      <c r="B72" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>257</v>
+      </c>
+      <c r="B73" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>259</v>
+      </c>
+      <c r="B74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>261</v>
+      </c>
+      <c r="B75" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>264</v>
+      </c>
+      <c r="B79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>267</v>
+      </c>
+      <c r="B82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>269</v>
+      </c>
+      <c r="B83" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>271</v>
+      </c>
+      <c r="B84" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>273</v>
+      </c>
+      <c r="B85" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>275</v>
+      </c>
+      <c r="B86" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>277</v>
+      </c>
+      <c r="B87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>279</v>
+      </c>
+      <c r="B88" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>283</v>
+      </c>
+      <c r="B90" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>285</v>
+      </c>
+      <c r="B91" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>287</v>
+      </c>
+      <c r="B92" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>288</v>
+      </c>
+      <c r="B94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>289</v>
+      </c>
+      <c r="B96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>290</v>
+      </c>
+      <c r="B98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>291</v>
+      </c>
+      <c r="B102" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>292</v>
+      </c>
+      <c r="B103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>293</v>
+      </c>
+      <c r="B104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>295</v>
+      </c>
+      <c r="B105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>297</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>302</v>
+      </c>
+      <c r="B108" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>304</v>
+      </c>
+      <c r="B109" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>305</v>
+      </c>
+      <c r="B110" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>307</v>
+      </c>
+      <c r="B111" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>309</v>
+      </c>
+      <c r="B112" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>311</v>
+      </c>
+      <c r="B113" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>312</v>
+      </c>
+      <c r="B114" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>313</v>
+      </c>
+      <c r="B115" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B116" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B117" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B119" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A105" xr:uid="{BA35840D-AFBC-4E73-AC26-0EA19AEFE584}"/>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114:A1048576 A1:A112 B113">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345FE047-4A44-4A81-8C9D-5FBABC885783}">
   <dimension ref="A1:K54"/>
   <sheetViews>
